--- a/docs/Группы/CАИТиП.xlsx
+++ b/docs/Группы/CАИТиП.xlsx
@@ -701,6 +701,48 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -748,48 +790,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1139,192 +1139,192 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="70" t="s">
+      <c r="S1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
     </row>
     <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="74" t="s">
+      <c r="V5" s="60" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74" t="s">
+      <c r="B7" s="58"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74" t="s">
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74" t="s">
+      <c r="N7" s="60"/>
+      <c r="O7" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74" t="s">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74" t="s">
+      <c r="R7" s="60"/>
+      <c r="S7" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="73"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
@@ -1367,8 +1367,8 @@
       <c r="T8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="4">
         <f>SUM(G12:G38)</f>
         <v>114</v>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
@@ -3035,13 +3035,13 @@
     </row>
     <row r="39" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="36">
         <f t="shared" ref="G39:V39" si="2">SUM(G40:G43)</f>
         <v>0</v>
@@ -3314,13 +3314,13 @@
     </row>
     <row r="44" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="66"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
       <c r="G44" s="5">
         <f t="shared" ref="G44:V44" si="3">SUM(G46:G53)</f>
         <v>30</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="60"/>
+      <c r="C45" s="74"/>
       <c r="D45" s="10" t="s">
         <v>17</v>
       </c>
@@ -3814,13 +3814,13 @@
     </row>
     <row r="54" spans="1:22" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66"/>
+      <c r="C54" s="79"/>
+      <c r="D54" s="79"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="80"/>
       <c r="G54" s="5">
         <f t="shared" ref="G54:R54" ca="1" si="4">SUM(G53:G56)</f>
         <v>0</v>
@@ -3882,10 +3882,10 @@
     </row>
     <row r="55" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="60"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="10" t="s">
         <v>17</v>
       </c>
@@ -3969,27 +3969,27 @@
     </row>
     <row r="57" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
-      <c r="B57" s="61" t="s">
+      <c r="B57" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="63"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="76"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="76"/>
+      <c r="S57" s="76"/>
+      <c r="T57" s="77"/>
       <c r="U57" s="32">
         <f>U10+U39+U44+U54</f>
         <v>935</v>
@@ -4025,18 +4025,18 @@
     </row>
     <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55" t="s">
+      <c r="C59" s="68"/>
+      <c r="D59" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="70"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="70"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
@@ -4173,14 +4173,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:T57"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C5:C8"/>
@@ -4192,15 +4193,14 @@
     <mergeCell ref="C4:V4"/>
     <mergeCell ref="G5:T6"/>
     <mergeCell ref="C2:V2"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:T57"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>

--- a/docs/Группы/CАИТиП.xlsx
+++ b/docs/Группы/CАИТиП.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-630" yWindow="-135" windowWidth="19320" windowHeight="13185"/>
+    <workbookView xWindow="-90" yWindow="1260" windowWidth="19320" windowHeight="13185"/>
   </bookViews>
   <sheets>
     <sheet name="контингент" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="82">
   <si>
     <t>1 курс</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Профиль/Специализация</t>
   </si>
   <si>
-    <t>по индивидуальному учебному плану ускоренно по программам бакалавриата-всего</t>
-  </si>
-  <si>
     <t>Код по перечню направлений подготовки (специальностей)</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>Заочная полная</t>
-  </si>
-  <si>
-    <t>Заочная сокращенная</t>
   </si>
   <si>
     <t>38.03.05</t>
@@ -701,6 +695,78 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -718,78 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1139,197 +1133,197 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
     </row>
     <row r="2" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="C2" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:22" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
+      <c r="C3" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
     </row>
     <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="60" t="s">
+      <c r="B5" s="81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="61" t="s">
+      <c r="F5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60" t="s">
+      <c r="G5" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="V5" s="60" t="s">
+      <c r="V5" s="74" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
     </row>
     <row r="7" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60" t="s">
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60" t="s">
+      <c r="N7" s="74"/>
+      <c r="O7" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60" t="s">
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60" t="s">
+      <c r="R7" s="74"/>
+      <c r="S7" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
     </row>
     <row r="8" spans="1:22" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="63"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>12</v>
@@ -1338,7 +1332,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>12</v>
@@ -1367,8 +1361,8 @@
       <c r="T8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
     </row>
     <row r="9" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1434,13 +1428,13 @@
     </row>
     <row r="10" spans="1:22" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="56"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="4">
         <f>SUM(G12:G38)</f>
         <v>114</v>
@@ -1504,10 +1498,10 @@
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="72"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="10" t="s">
         <v>17</v>
       </c>
@@ -1565,19 +1559,19 @@
     <row r="12" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G12" s="42">
         <v>10</v>
@@ -1620,19 +1614,19 @@
     <row r="13" spans="1:22" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A13" s="18"/>
       <c r="B13" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="46">
         <v>0</v>
@@ -1674,19 +1668,19 @@
     <row r="14" spans="1:22" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
       <c r="B14" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G14" s="46">
         <v>8</v>
@@ -1728,17 +1722,17 @@
     <row r="15" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G15" s="46">
         <v>8</v>
@@ -1781,19 +1775,19 @@
     <row r="16" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -1835,19 +1829,19 @@
     <row r="17" spans="1:22" ht="112.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G17" s="46">
         <v>13</v>
@@ -1891,17 +1885,17 @@
     <row r="18" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="46">
         <v>3</v>
@@ -1945,17 +1939,17 @@
     <row r="19" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G19" s="42">
         <v>0</v>
@@ -1998,19 +1992,19 @@
     <row r="20" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G20" s="13">
         <v>0</v>
@@ -2053,19 +2047,19 @@
     <row r="21" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G21" s="16">
         <v>8</v>
@@ -2108,19 +2102,19 @@
     <row r="22" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
-      </c>
       <c r="E22" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>27</v>
       </c>
       <c r="G22" s="16">
         <v>0</v>
@@ -2163,19 +2157,19 @@
     <row r="23" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G23" s="16">
         <v>8</v>
@@ -2218,19 +2212,19 @@
     <row r="24" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -2272,19 +2266,19 @@
     <row r="25" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E25" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G25" s="16">
         <v>10</v>
@@ -2329,19 +2323,19 @@
     <row r="26" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="29" t="s">
-        <v>77</v>
-      </c>
       <c r="E26" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G26" s="45">
         <v>5</v>
@@ -2383,19 +2377,19 @@
     <row r="27" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="E27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G27" s="16">
         <v>0</v>
@@ -2438,19 +2432,19 @@
     <row r="28" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="42">
         <v>22</v>
@@ -2495,19 +2489,19 @@
     <row r="29" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" s="42">
         <v>0</v>
@@ -2550,19 +2544,19 @@
     <row r="30" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="E30" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" s="16">
         <v>0</v>
@@ -2605,17 +2599,17 @@
     <row r="31" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="15"/>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" s="51">
         <v>9</v>
@@ -2657,17 +2651,17 @@
     <row r="32" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="15"/>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="51">
         <v>0</v>
@@ -2709,19 +2703,19 @@
     <row r="33" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="29" t="s">
-        <v>77</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33" s="45">
         <v>0</v>
@@ -2764,19 +2758,19 @@
     <row r="34" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="45">
         <v>0</v>
@@ -2819,19 +2813,19 @@
     <row r="35" spans="1:22" ht="75" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G35" s="16">
         <v>0</v>
@@ -2873,19 +2867,19 @@
     <row r="36" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" s="52">
         <v>0</v>
@@ -2927,19 +2921,19 @@
     <row r="37" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" s="16">
         <v>0</v>
@@ -2981,19 +2975,19 @@
     <row r="38" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G38" s="16">
         <v>0</v>
@@ -3035,340 +3029,181 @@
     </row>
     <row r="39" spans="1:22" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
-      <c r="B39" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="36">
-        <f t="shared" ref="G39:V39" si="2">SUM(G40:G43)</f>
-        <v>0</v>
-      </c>
+      <c r="B39" s="67"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
       <c r="K39" s="36"/>
-      <c r="L39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="36">
-        <f t="shared" si="2"/>
-        <v>127</v>
-      </c>
-      <c r="N39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="36">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="P39" s="36">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="Q39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="36">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="36">
-        <f t="shared" si="2"/>
-        <v>219</v>
-      </c>
-      <c r="V39" s="36">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+    </row>
+    <row r="40" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
-      <c r="B40" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>30</v>
-      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="43">
-        <v>0</v>
-      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="43"/>
-      <c r="I40" s="43">
-        <v>0</v>
-      </c>
-      <c r="J40" s="43">
-        <v>0</v>
-      </c>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
       <c r="K40" s="43"/>
-      <c r="L40" s="43">
-        <v>0</v>
-      </c>
-      <c r="M40" s="43">
-        <v>97</v>
-      </c>
-      <c r="N40" s="43">
-        <v>0</v>
-      </c>
-      <c r="O40" s="43">
-        <v>92</v>
-      </c>
-      <c r="P40" s="43">
-        <v>11</v>
-      </c>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="25">
-        <v>189</v>
-      </c>
-      <c r="V40" s="25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+    </row>
+    <row r="41" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="15"/>
-      <c r="E41" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="44">
-        <v>0</v>
-      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="44"/>
       <c r="H41" s="44"/>
-      <c r="I41" s="44">
-        <v>0</v>
-      </c>
-      <c r="J41" s="44">
-        <v>0</v>
-      </c>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="44"/>
-      <c r="L41" s="44">
-        <v>0</v>
-      </c>
-      <c r="M41" s="44">
-        <v>0</v>
-      </c>
-      <c r="N41" s="44">
-        <v>0</v>
-      </c>
-      <c r="O41" s="44">
-        <v>0</v>
-      </c>
-      <c r="P41" s="44">
-        <v>0</v>
-      </c>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="16"/>
       <c r="S41" s="16"/>
       <c r="T41" s="16"/>
-      <c r="U41" s="26">
-        <v>0</v>
-      </c>
-      <c r="V41" s="25">
-        <f>I41+L41+N41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="U41" s="26"/>
+      <c r="V41" s="25"/>
+    </row>
+    <row r="42" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="18"/>
-      <c r="B42" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="15"/>
-      <c r="E42" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="44">
-        <v>0</v>
-      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="44"/>
       <c r="H42" s="44"/>
-      <c r="I42" s="44">
-        <v>0</v>
-      </c>
-      <c r="J42" s="44">
-        <v>0</v>
-      </c>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="44"/>
-      <c r="L42" s="44">
-        <v>0</v>
-      </c>
-      <c r="M42" s="44">
-        <v>0</v>
-      </c>
-      <c r="N42" s="44">
-        <v>0</v>
-      </c>
-      <c r="O42" s="44">
-        <v>0</v>
-      </c>
-      <c r="P42" s="44">
-        <v>0</v>
-      </c>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
       <c r="Q42" s="16"/>
       <c r="R42" s="16"/>
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
-      <c r="U42" s="26">
-        <v>0</v>
-      </c>
-      <c r="V42" s="25">
-        <f>I42+L42+N42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="U42" s="26"/>
+      <c r="V42" s="25"/>
+    </row>
+    <row r="43" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
-      <c r="B43" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="44">
-        <v>0</v>
-      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="44"/>
       <c r="H43" s="44"/>
-      <c r="I43" s="44">
-        <v>0</v>
-      </c>
-      <c r="J43" s="44">
-        <v>0</v>
-      </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
       <c r="K43" s="44"/>
-      <c r="L43" s="44">
-        <v>0</v>
-      </c>
-      <c r="M43" s="44">
-        <v>30</v>
-      </c>
-      <c r="N43" s="44">
-        <v>0</v>
-      </c>
-      <c r="O43" s="44">
-        <v>0</v>
-      </c>
-      <c r="P43" s="44">
-        <v>0</v>
-      </c>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
       <c r="Q43" s="16"/>
       <c r="R43" s="16"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="14">
-        <v>30</v>
-      </c>
-      <c r="V43" s="25">
-        <f>I43+L43+N43</f>
-        <v>0</v>
-      </c>
+      <c r="U43" s="14"/>
+      <c r="V43" s="25"/>
     </row>
     <row r="44" spans="1:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="66"/>
       <c r="G44" s="5">
-        <f t="shared" ref="G44:V44" si="3">SUM(G46:G53)</f>
+        <f t="shared" ref="G44:V44" si="2">SUM(G46:G53)</f>
         <v>30</v>
       </c>
       <c r="H44" s="5"/>
       <c r="I44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U44" s="5">
@@ -3376,16 +3211,16 @@
         <v>98</v>
       </c>
       <c r="V44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="74"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="10" t="s">
         <v>17</v>
       </c>
@@ -3443,19 +3278,19 @@
     <row r="46" spans="1:22" ht="150" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G46" s="44">
         <v>10</v>
@@ -3489,19 +3324,19 @@
     <row r="47" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G47" s="44">
         <v>0</v>
@@ -3535,19 +3370,19 @@
     <row r="48" spans="1:22" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G48" s="22">
         <v>0</v>
@@ -3582,19 +3417,19 @@
     <row r="49" spans="1:22" ht="75" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E49" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G49" s="22">
         <v>0</v>
@@ -3629,19 +3464,19 @@
     <row r="50" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E50" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G50" s="22">
         <v>10</v>
@@ -3676,19 +3511,19 @@
     <row r="51" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A51" s="18"/>
       <c r="B51" s="39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D51" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E51" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G51" s="16">
         <v>0</v>
@@ -3723,19 +3558,19 @@
     <row r="52" spans="1:22" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A52" s="18"/>
       <c r="B52" s="39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" s="44">
         <v>10</v>
@@ -3769,19 +3604,19 @@
     <row r="53" spans="1:22" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G53" s="43">
         <v>0</v>
@@ -3814,53 +3649,53 @@
     </row>
     <row r="54" spans="1:22" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
-      <c r="B54" s="78" t="s">
+      <c r="B54" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="80"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="66"/>
       <c r="G54" s="5">
-        <f t="shared" ref="G54:R54" ca="1" si="4">SUM(G53:G56)</f>
+        <f t="shared" ref="G54:R54" ca="1" si="3">SUM(G53:G56)</f>
         <v>0</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R54" s="5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="S54" s="5">
@@ -3882,10 +3717,10 @@
     </row>
     <row r="55" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="18"/>
-      <c r="B55" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="74"/>
+      <c r="B55" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="60"/>
       <c r="D55" s="10" t="s">
         <v>17</v>
       </c>
@@ -3969,34 +3804,34 @@
     </row>
     <row r="57" spans="1:22" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="18"/>
-      <c r="B57" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="76"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="76"/>
-      <c r="F57" s="76"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="76"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="76"/>
-      <c r="K57" s="76"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="76"/>
-      <c r="N57" s="76"/>
-      <c r="O57" s="76"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="76"/>
-      <c r="S57" s="76"/>
-      <c r="T57" s="77"/>
+      <c r="B57" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="62"/>
+      <c r="I57" s="62"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="62"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="63"/>
       <c r="U57" s="32">
         <f>U10+U39+U44+U54</f>
-        <v>935</v>
+        <v>716</v>
       </c>
       <c r="V57" s="32">
         <f>V10+V39+V44+V54</f>
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
@@ -4025,18 +3860,18 @@
     </row>
     <row r="59" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="68" t="s">
+      <c r="B59" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="70"/>
-      <c r="H59" s="70"/>
-      <c r="I59" s="70"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="35"/>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
@@ -4173,15 +4008,14 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B57:T57"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="C5:C8"/>
@@ -4193,14 +4027,15 @@
     <mergeCell ref="C4:V4"/>
     <mergeCell ref="G5:T6"/>
     <mergeCell ref="C2:V2"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B57:T57"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
